--- a/assets/modules/seagrass-shoots/marinegeo_spreadsheet_seagrass_shoots.xlsx
+++ b/assets/modules/seagrass-shoots/marinegeo_spreadsheet_seagrass_shoots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\Seagrasses\seagrass-shoots\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\spreadsheets_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DD259E-C6D9-4160-BE7E-C5664DFE7536}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579F7C35-1653-4DBC-AD6F-EC0AF0048E05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol_metadata" sheetId="1" r:id="rId1"/>
@@ -330,9 +330,6 @@
     <t>data_entry_year</t>
   </si>
   <si>
-    <t>v0.4.0</t>
-  </si>
-  <si>
     <t>Day of final data entry</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>blade_measurement_data_notes</t>
+  </si>
+  <si>
+    <t>v0.5.0</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1246,9 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="39.950000000000003" customHeight="1"/>
   <cols>
@@ -1256,7 +1258,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="161.1" customHeight="1">
       <c r="B1" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1314,7 +1316,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1">
@@ -1440,13 +1442,13 @@
         <v>74</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L1" s="29" t="s">
         <v>52</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1803,16 +1805,16 @@
         <v>75</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>100</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J1" s="32" t="s">
         <v>76</v>
@@ -1821,7 +1823,7 @@
         <v>77</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2229,13 +2231,13 @@
         <v>75</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>100</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>78</v>
@@ -2256,7 +2258,7 @@
         <v>81</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2683,13 +2685,13 @@
         <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -2701,13 +2703,13 @@
         <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -2719,13 +2721,13 @@
         <v>89</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -2990,10 +2992,10 @@
         <v>63</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>17</v>
@@ -3009,7 +3011,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>17</v>
@@ -3022,10 +3024,10 @@
         <v>63</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
@@ -3035,7 +3037,7 @@
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="31.5">
       <c r="A27" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="15" t="s">
@@ -3047,7 +3049,7 @@
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="45.75" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>67</v>
@@ -3065,7 +3067,7 @@
     </row>
     <row r="29" spans="1:6" s="23" customFormat="1" ht="78" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>84</v>
@@ -3083,7 +3085,7 @@
     </row>
     <row r="30" spans="1:6" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>66</v>
@@ -3099,7 +3101,7 @@
     </row>
     <row r="31" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>68</v>
@@ -3115,7 +3117,7 @@
     </row>
     <row r="32" spans="1:6" s="23" customFormat="1" ht="42.75" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>75</v>
@@ -3133,13 +3135,13 @@
     </row>
     <row r="33" spans="1:6" s="36" customFormat="1" ht="66" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>17</v>
@@ -3149,13 +3151,13 @@
     </row>
     <row r="34" spans="1:6" s="36" customFormat="1" ht="66" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>17</v>
@@ -3165,13 +3167,13 @@
     </row>
     <row r="35" spans="1:6" s="38" customFormat="1" ht="47.25">
       <c r="A35" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>103</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>104</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>17</v>
@@ -3181,13 +3183,13 @@
     </row>
     <row r="36" spans="1:6" s="38" customFormat="1" ht="54" customHeight="1">
       <c r="A36" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="37" t="s">
         <v>110</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>111</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>30</v>
@@ -3197,7 +3199,7 @@
     </row>
     <row r="37" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>76</v>
@@ -3217,7 +3219,7 @@
     </row>
     <row r="38" spans="1:6" s="23" customFormat="1" ht="54.75" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>77</v>
@@ -3237,13 +3239,13 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>17</v>
@@ -3253,7 +3255,7 @@
     </row>
     <row r="40" spans="1:6" s="23" customFormat="1" ht="31.5">
       <c r="A40" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="15" t="s">
@@ -3265,7 +3267,7 @@
     </row>
     <row r="41" spans="1:6" s="23" customFormat="1" ht="45.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="40" t="s">
         <v>67</v>
@@ -3283,7 +3285,7 @@
     </row>
     <row r="42" spans="1:6" s="23" customFormat="1" ht="78" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="40" t="s">
         <v>84</v>
@@ -3301,7 +3303,7 @@
     </row>
     <row r="43" spans="1:6" s="23" customFormat="1" ht="45" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="40" t="s">
         <v>66</v>
@@ -3317,7 +3319,7 @@
     </row>
     <row r="44" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>68</v>
@@ -3333,7 +3335,7 @@
     </row>
     <row r="45" spans="1:6" s="23" customFormat="1" ht="42.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>75</v>
@@ -3351,13 +3353,13 @@
     </row>
     <row r="46" spans="1:6" s="36" customFormat="1" ht="66" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>17</v>
@@ -3367,13 +3369,13 @@
     </row>
     <row r="47" spans="1:6" s="36" customFormat="1" ht="66" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>17</v>
@@ -3383,13 +3385,13 @@
     </row>
     <row r="48" spans="1:6" s="38" customFormat="1" ht="47.25">
       <c r="A48" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>17</v>
@@ -3399,7 +3401,7 @@
     </row>
     <row r="49" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" s="40" t="s">
         <v>76</v>
@@ -3419,7 +3421,7 @@
     </row>
     <row r="50" spans="1:6" s="23" customFormat="1" ht="54.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="40" t="s">
         <v>77</v>
@@ -3439,7 +3441,7 @@
     </row>
     <row r="51" spans="1:6" s="23" customFormat="1" ht="49.5" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51" s="40" t="s">
         <v>78</v>
@@ -3459,7 +3461,7 @@
     </row>
     <row r="52" spans="1:6" s="23" customFormat="1" ht="60" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" s="40" t="s">
         <v>85</v>
@@ -3477,7 +3479,7 @@
     </row>
     <row r="53" spans="1:6" s="23" customFormat="1" ht="57.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="40" t="s">
         <v>79</v>
@@ -3497,7 +3499,7 @@
     </row>
     <row r="54" spans="1:6" s="20" customFormat="1" ht="66" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="40" t="s">
         <v>80</v>
@@ -3517,7 +3519,7 @@
     </row>
     <row r="55" spans="1:6" s="20" customFormat="1" ht="69.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="40" t="s">
         <v>82</v>
@@ -3537,7 +3539,7 @@
     </row>
     <row r="56" spans="1:6" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>81</v>
@@ -3557,13 +3559,13 @@
     </row>
     <row r="57" spans="1:6" s="17" customFormat="1" ht="50.1" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>17</v>
